--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Egf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Egf-Egfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05056099999999999</v>
+        <v>0.04983966666666667</v>
       </c>
       <c r="H2">
-        <v>0.151683</v>
+        <v>0.149519</v>
       </c>
       <c r="I2">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="J2">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>0.10543586452</v>
+        <v>0.02044720503344445</v>
       </c>
       <c r="R2">
-        <v>0.9489227806799999</v>
+        <v>0.184024845301</v>
       </c>
       <c r="S2">
-        <v>0.003236158724318757</v>
+        <v>0.0006382367352147511</v>
       </c>
       <c r="T2">
-        <v>0.003236158724318756</v>
+        <v>0.000638236735214751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05056099999999999</v>
+        <v>0.04983966666666667</v>
       </c>
       <c r="H3">
-        <v>0.151683</v>
+        <v>0.149519</v>
       </c>
       <c r="I3">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="J3">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
-        <v>5.152073525053</v>
+        <v>5.078570976262334</v>
       </c>
       <c r="R3">
-        <v>46.368661725477</v>
+        <v>45.70713878636101</v>
       </c>
       <c r="S3">
-        <v>0.1581333615685324</v>
+        <v>0.1585219375530487</v>
       </c>
       <c r="T3">
-        <v>0.1581333615685324</v>
+        <v>0.1585219375530486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05056099999999999</v>
+        <v>0.04983966666666667</v>
       </c>
       <c r="H4">
-        <v>0.151683</v>
+        <v>0.149519</v>
       </c>
       <c r="I4">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="J4">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>0.754438225667</v>
+        <v>0.7436749606976667</v>
       </c>
       <c r="R4">
-        <v>6.789944031003</v>
+        <v>6.693074646279</v>
       </c>
       <c r="S4">
-        <v>0.02315608504816408</v>
+        <v>0.02321298574549879</v>
       </c>
       <c r="T4">
-        <v>0.02315608504816408</v>
+        <v>0.02321298574549879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.3305169999999999</v>
       </c>
       <c r="I5">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="J5">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>0.2297445701466666</v>
+        <v>0.04519926474922221</v>
       </c>
       <c r="R5">
-        <v>2.06770113132</v>
+        <v>0.406793382743</v>
       </c>
       <c r="S5">
-        <v>0.007051584377192319</v>
+        <v>0.001410844715474113</v>
       </c>
       <c r="T5">
-        <v>0.007051584377192318</v>
+        <v>0.001410844715474112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.3305169999999999</v>
       </c>
       <c r="I6">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="J6">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
         <v>11.22635948181366</v>
@@ -818,10 +818,10 @@
         <v>101.037235336323</v>
       </c>
       <c r="S6">
-        <v>0.344572326928836</v>
+        <v>0.350418309607615</v>
       </c>
       <c r="T6">
-        <v>0.3445723269288359</v>
+        <v>0.3504183096076149</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.3305169999999999</v>
       </c>
       <c r="I7">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="J7">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
         <v>1.643919615466333</v>
@@ -880,10 +880,10 @@
         <v>14.795276539197</v>
       </c>
       <c r="S7">
-        <v>0.05045707008606137</v>
+        <v>0.05131312013620358</v>
       </c>
       <c r="T7">
-        <v>0.05045707008606136</v>
+        <v>0.05131312013620357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.339816</v>
       </c>
       <c r="I8">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069452</v>
       </c>
       <c r="J8">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069451</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N8">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O8">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P8">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q8">
-        <v>0.23620836704</v>
+        <v>0.04647093296266667</v>
       </c>
       <c r="R8">
-        <v>2.12587530336</v>
+        <v>0.418238396664</v>
       </c>
       <c r="S8">
-        <v>0.007249978659857089</v>
+        <v>0.001450538422633484</v>
       </c>
       <c r="T8">
-        <v>0.007249978659857087</v>
+        <v>0.001450538422633483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.339816</v>
       </c>
       <c r="I9">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069452</v>
       </c>
       <c r="J9">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069451</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P9">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q9">
         <v>11.542209852056</v>
@@ -1004,10 +1004,10 @@
         <v>103.879888668504</v>
       </c>
       <c r="S9">
-        <v>0.3542667694782699</v>
+        <v>0.3602772271853529</v>
       </c>
       <c r="T9">
-        <v>0.3542667694782698</v>
+        <v>0.3602772271853529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.339816</v>
       </c>
       <c r="I10">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069452</v>
       </c>
       <c r="J10">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069451</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q10">
         <v>1.690170817384</v>
@@ -1066,10 +1066,10 @@
         <v>15.211537356456</v>
       </c>
       <c r="S10">
-        <v>0.05187666512876806</v>
+        <v>0.05275679989895878</v>
       </c>
       <c r="T10">
-        <v>0.05187666512876805</v>
+        <v>0.05275679989895877</v>
       </c>
     </row>
   </sheetData>
